--- a/Content/Labs/metingen warmte buis.xlsx
+++ b/Content/Labs/metingen warmte buis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaskiaEnRoel\Documents\Erik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaskiaEnRoel\Documents\Erik\Inleidend practicum 2025 TN\IP 2\IP2-erik-en-xavi\Content\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE276B3-BCF4-48D2-9AB4-C74966E6D0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B8F93-D63B-46CF-B1EA-B4375F5E6FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{62AD86AA-C078-4DE1-A7A4-7D50F98ADBEC}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>tijdsduur (in sec)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>temperatuur in graden celcius met verticaal zonder stop</t>
   </si>
@@ -48,6 +45,15 @@
   </si>
   <si>
     <t>tempratuur in graden met buis horizontaal</t>
+  </si>
+  <si>
+    <t>tijd metinegen 1</t>
+  </si>
+  <si>
+    <t>tijd meting  2</t>
+  </si>
+  <si>
+    <t>tijd meting 3</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C88C7A-7472-46D6-ADCA-0B24BE6F6380}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,23 +437,31 @@
     <col min="2" max="2" width="46.109375" customWidth="1"/>
     <col min="3" max="3" width="44.88671875" customWidth="1"/>
     <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -460,8 +474,14 @@
       <c r="D2">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -474,8 +494,14 @@
       <c r="D3">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
@@ -488,8 +514,14 @@
       <c r="D4">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -502,8 +534,14 @@
       <c r="D5">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -516,8 +554,14 @@
       <c r="D6">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -530,8 +574,14 @@
       <c r="D7">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
@@ -544,8 +594,14 @@
       <c r="D8">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
@@ -558,8 +614,14 @@
       <c r="D9">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>80</v>
       </c>
@@ -572,8 +634,14 @@
       <c r="D10">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>90</v>
       </c>
@@ -586,8 +654,14 @@
       <c r="D11">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -600,8 +674,14 @@
       <c r="D12">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>110</v>
       </c>
@@ -614,8 +694,14 @@
       <c r="D13">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>110</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>120</v>
       </c>
@@ -628,8 +714,14 @@
       <c r="D14">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>130</v>
       </c>
@@ -642,30 +734,54 @@
       <c r="D15">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>140</v>
       </c>
       <c r="B16">
         <v>34.9</v>
       </c>
+      <c r="C16">
+        <v>37.6</v>
+      </c>
       <c r="D16">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>160</v>
+      </c>
+      <c r="F16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>150</v>
       </c>
       <c r="B17">
         <v>34.700000000000003</v>
       </c>
+      <c r="C17">
+        <v>37.299999999999997</v>
+      </c>
       <c r="D17">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>170</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>160</v>
       </c>
@@ -673,13 +789,19 @@
         <v>34.4</v>
       </c>
       <c r="C18">
-        <v>37.6</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>170</v>
       </c>
@@ -687,13 +809,19 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C19">
-        <v>37.299999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D19">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>190</v>
+      </c>
+      <c r="F19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>180</v>
       </c>
@@ -701,13 +829,19 @@
         <v>33.9</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>190</v>
       </c>
@@ -715,13 +849,19 @@
         <v>33.6</v>
       </c>
       <c r="C21">
-        <v>36.799999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="D21">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>210</v>
+      </c>
+      <c r="F21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>200</v>
       </c>
@@ -729,13 +869,19 @@
         <v>33.5</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="D22">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>220</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>210</v>
       </c>
@@ -743,13 +889,19 @@
         <v>33.200000000000003</v>
       </c>
       <c r="C23">
-        <v>35.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D23">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>230</v>
+      </c>
+      <c r="F23">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>220</v>
       </c>
@@ -757,13 +909,19 @@
         <v>33.1</v>
       </c>
       <c r="C24">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>240</v>
+      </c>
+      <c r="F24">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>230</v>
       </c>
@@ -771,13 +929,19 @@
         <v>32.799999999999997</v>
       </c>
       <c r="C25">
-        <v>35.200000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D25">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>250</v>
+      </c>
+      <c r="F25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>240</v>
       </c>
@@ -785,190 +949,232 @@
         <v>32.700000000000003</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D26">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>250</v>
-      </c>
+      <c r="E26">
+        <v>260</v>
+      </c>
+      <c r="F26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27">
-        <v>34.700000000000003</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D27">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>260</v>
-      </c>
+      <c r="E27">
+        <v>270</v>
+      </c>
+      <c r="F27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28">
-        <v>34.5</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="D28">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>270</v>
-      </c>
+      <c r="E28">
+        <v>280</v>
+      </c>
+      <c r="F28">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29">
-        <v>34.299999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="D29">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>280</v>
-      </c>
+      <c r="E29">
+        <v>290</v>
+      </c>
+      <c r="F29">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30">
-        <v>34.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>290</v>
-      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="D31">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>300</v>
-      </c>
+      <c r="E31">
+        <v>310</v>
+      </c>
+      <c r="F31">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32">
-        <v>34</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D32">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>310</v>
-      </c>
+      <c r="E32">
+        <v>320</v>
+      </c>
+      <c r="F32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="D33">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>320</v>
-      </c>
+      <c r="E33">
+        <v>330</v>
+      </c>
+      <c r="F33">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34">
-        <v>33.700000000000003</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D34">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>330</v>
-      </c>
+      <c r="E34">
+        <v>340</v>
+      </c>
+      <c r="F34">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35">
-        <v>33.5</v>
+        <v>32.9</v>
       </c>
       <c r="D35">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>340</v>
-      </c>
+      <c r="E35">
+        <v>350</v>
+      </c>
+      <c r="F35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36">
-        <v>33.200000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D36">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>350</v>
-      </c>
+      <c r="E36">
+        <v>360</v>
+      </c>
+      <c r="F36">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>32.9</v>
       </c>
       <c r="D37">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>360</v>
-      </c>
+      <c r="E37">
+        <v>370</v>
+      </c>
+      <c r="F37">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>32.799999999999997</v>
       </c>
       <c r="D38">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>370</v>
-      </c>
+      <c r="E38">
+        <v>380</v>
+      </c>
+      <c r="F38">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>380</v>
-      </c>
+      <c r="F39">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>390</v>
-      </c>
+      <c r="F40">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>400</v>
-      </c>
+      <c r="F41">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>410</v>
-      </c>
+      <c r="F42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>420</v>
-      </c>
+      <c r="F43">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>32.200000000000003</v>
+      </c>
+      <c r="F44">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Labs/metingen warmte buis.xlsx
+++ b/Content/Labs/metingen warmte buis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaskiaEnRoel\Documents\Erik\Inleidend practicum 2025 TN\IP 2\IP2-erik-en-xavi\Content\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B8F93-D63B-46CF-B1EA-B4375F5E6FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F76141-1C5F-48C7-9E90-57D11A6E1DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{62AD86AA-C078-4DE1-A7A4-7D50F98ADBEC}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -427,21 +428,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C88C7A-7472-46D6-ADCA-0B24BE6F6380}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="46.08984375" customWidth="1"/>
+    <col min="3" max="3" width="44.90625" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -461,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -481,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -501,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -521,7 +522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
@@ -541,7 +542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -561,7 +562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
@@ -581,7 +582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
@@ -601,7 +602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>70</v>
       </c>
@@ -621,7 +622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>80</v>
       </c>
@@ -641,7 +642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90</v>
       </c>
@@ -661,7 +662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100</v>
       </c>
@@ -681,7 +682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>110</v>
       </c>
@@ -701,7 +702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>120</v>
       </c>
@@ -721,7 +722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>130</v>
       </c>
@@ -741,7 +742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>140</v>
       </c>
@@ -761,7 +762,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>150</v>
       </c>
@@ -781,7 +782,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -801,7 +802,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>170</v>
       </c>
@@ -821,7 +822,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>180</v>
       </c>
@@ -841,7 +842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>190</v>
       </c>
@@ -861,7 +862,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200</v>
       </c>
@@ -881,7 +882,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>210</v>
       </c>
@@ -901,7 +902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>220</v>
       </c>
@@ -921,7 +922,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>230</v>
       </c>
@@ -941,7 +942,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>240</v>
       </c>
@@ -961,7 +962,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>34.299999999999997</v>
       </c>
@@ -975,7 +976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>34.200000000000003</v>
       </c>
@@ -989,7 +990,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>34.1</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>34</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>33.9</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>33.700000000000003</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>33.5</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34">
         <v>33.200000000000003</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>32.9</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>32.799999999999997</v>
       </c>
@@ -1101,35 +1102,23 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37">
-        <v>32.9</v>
-      </c>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D37">
         <v>33.6</v>
       </c>
-      <c r="E37">
-        <v>370</v>
-      </c>
       <c r="F37">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38">
-        <v>32.799999999999997</v>
-      </c>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D38">
         <v>33.299999999999997</v>
       </c>
-      <c r="E38">
-        <v>380</v>
-      </c>
       <c r="F38">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D39">
         <v>33.1</v>
       </c>
@@ -1137,7 +1126,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>32.9</v>
       </c>
@@ -1145,7 +1134,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D41">
         <v>32.700000000000003</v>
       </c>
@@ -1153,7 +1142,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D42">
         <v>32.5</v>
       </c>
@@ -1161,7 +1150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D43">
         <v>32.4</v>
       </c>
@@ -1169,7 +1158,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D44">
         <v>32.200000000000003</v>
       </c>
@@ -1179,5 +1168,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>